--- a/cleaned-data.xlsx
+++ b/cleaned-data.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="12">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="15">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="27">
@@ -1107,7 +1107,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="28">
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="34">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="41">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>72610</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="48">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="59">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>32569.64814814815</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="61">

--- a/cleaned-data.xlsx
+++ b/cleaned-data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,32 +993,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมปัญญาประดิษฐ์</t>
+          <t>วศ.บ. วิศวกรรมดิจิทัล (หลักสูตรนานาชาติ)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ภาษาไทย ปกติ</t>
+          <t>นานาชาติ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>หาดใหญ่</t>
+          <t>ภูเก็ต</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28000</v>
+        <v>48000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยสงขลานครินทร์</t>
+          <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าธนบุรี</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมดิจิทัล (หลักสูตรนานาชาติ)</t>
+          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ ปริญญาตรี 4 ปี  (หลักสูตรนานาชาติ)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1028,11 +1028,11 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ภูเก็ต</t>
+          <t>บางมด</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>48000</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="25">
@@ -1043,12 +1043,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ ปริญญาตรี 4 ปี  (หลักสูตรนานาชาติ)</t>
+          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ ปริญญาตรี 4 ปี</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>นานาชาติ</t>
+          <t>ภาษาไทย ปกติ</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ ปริญญาตรี 4 ปี</t>
+          <t>ครุศาสตร์อุตสาหกรรมบัณฑิต สาขาวิชาวิศวกรรมไฟฟ้า ปริญญาตรี 5 ปี</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1088,12 +1088,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าธนบุรี</t>
+          <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ครุศาสตร์อุตสาหกรรมบัณฑิต สาขาวิชาวิศวกรรมไฟฟ้า ปริญญาตรี 5 ปี</t>
+          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>บางมด</t>
+          <t>กรุงเทพฯ</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>31393.09259259259</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีพระจอมเกล้าพระนครเหนือ</t>
+          <t>สถาบันเทคโนโลยีพระจอมเกล้าเจ้าคุณทหารลาดกระบัง</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>กรุงเทพฯ</t>
+          <t>ลาดกระบัง</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1143,12 +1143,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์ (หลักสูตรนานาชาติ)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ภาษาไทย ปกติ</t>
+          <t>นานาชาติ</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>25000</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="30">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์ (หลักสูตรนานาชาติ)</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์และความปลอดภัยไซเบอร์</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>นานาชาติ</t>
+          <t>ภาษาไทย ปกติ</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>90000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="31">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์และความปลอดภัยไซเบอร์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1203,22 +1203,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ลาดกระบัง</t>
+          <t>ชุมพรเขตรอุดมศักดิ์ จังหวัดชุมพร</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>50000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>สถาบันเทคโนโลยีพระจอมเกล้าเจ้าคุณทหารลาดกระบัง</t>
+          <t>มหาวิทยาลัยเทคโนโลยีสุรนารี</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
+          <t>กลุ่มวิศวกรรมศาสตร์ (ประกอบด้วยสาขาวิชาวิศวกรรมการผลิตอัตโนมัติและหุ่นยนต์, วิศวกรรมเกษตรและอาหาร, วิศวกรรมคอมพิวเตอร์, วิศวกรรมเคมี, วิศวกรรมเครื่องกล, วิศวกรรมปิโตรเลียมและเทคโนโลยีธรณี, วิศวกรรมไฟฟ้า, วิศวกรรมโทรคมนาคม, วิศวกรรมยานยนต์,วิศวกรรมโยธา, วิศวกรรมขนส่งและโลจิสติส์, วิศวกรรมเซรามิก, วิศวกรรมพอลิเมอร์, วิศวกรรมโลหการ, วิศวกรรมสิ่งแวดล้อม, วิศวกรรมธรณี, วิศวกรรมอากาศยาน, วิศวกรรมอิเล็กทรอนิกส์, วิศวกรรมอุตสาหการ เรียนรวมกันปี 1 แยกสาขาปี 2)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ชุมพรเขตรอุดมศักดิ์ จังหวัดชุมพร</t>
+          <t>วิทยาเขตหลัก</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>20000</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="33">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>กลุ่มวิศวกรรมศาสตร์ (ประกอบด้วยสาขาวิชาวิศวกรรมการผลิตอัตโนมัติและหุ่นยนต์, วิศวกรรมเกษตรและอาหาร, วิศวกรรมคอมพิวเตอร์, วิศวกรรมเคมี, วิศวกรรมเครื่องกล, วิศวกรรมปิโตรเลียมและเทคโนโลยีธรณี, วิศวกรรมไฟฟ้า, วิศวกรรมโทรคมนาคม, วิศวกรรมยานยนต์,วิศวกรรมโยธา, วิศวกรรมขนส่งและโลจิสติส์, วิศวกรรมเซรามิก, วิศวกรรมพอลิเมอร์, วิศวกรรมโลหการ, วิศวกรรมสิ่งแวดล้อม, วิศวกรรมธรณี, วิศวกรรมอากาศยาน, วิศวกรรมอิเล็กทรอนิกส์, วิศวกรรมอุตสาหการ เรียนรวมกันปี 1 แยกสาขาปี 2)</t>
+          <t>วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1257,18 +1257,18 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>31393.09259259259</v>
+        <v>24637</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีสุรนารี</t>
+          <t>มหาวิทยาลัยนเรศวร</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>วิศวกรรมคอมพิวเตอร์</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1282,18 +1282,18 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>24637</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยนเรศวร</t>
+          <t>มหาวิทยาลัยวลัยลักษณ์</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
+          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1307,18 +1307,18 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>16000</v>
+        <v>32700</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยวลัยลักษณ์</t>
+          <t>มหาวิทยาลัยแม่ฟ้าหลวง</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์ (จัดการเรียนการสอนเป็นภาษาอังกฤษ)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1332,18 +1332,18 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>32700</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยแม่ฟ้าหลวง</t>
+          <t>มหาวิทยาลัยนราธิวาสราชนครินทร์</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์ (จัดการเรียนการสอนเป็นภาษาอังกฤษ)</t>
+          <t>วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1357,18 +1357,18 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยนราธิวาสราชนครินทร์</t>
+          <t>มหาวิทยาลัยนครพนม</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>วิศวกรรมคอมพิวเตอร์</t>
+          <t>วิศวกรรมศาสตรบัณฑิต</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1382,18 +1382,18 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>14000</v>
+        <v>9025</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยนครพนม</t>
+          <t>มหาวิทยาลัยพะเยา</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>วิศวกรรมศาสตรบัณฑิต</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1407,18 +1407,18 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>9025</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยพะเยา</t>
+          <t>มหาวิทยาลัยกาฬสินธุ์</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1432,18 +1432,18 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>31393.09259259259</v>
+        <v>10150</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยกาฬสินธุ์</t>
+          <t>มหาวิทยาลัยรามคำแหง</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ (วศ.บ. (วิศวกรรมคอมพิวเตอร์))</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>วิทยาเขตหลัก</t>
+          <t>วิทยาเขตหลักหัวหมาก</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>10150</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="42">
@@ -1468,37 +1468,37 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ (วศ.บ. (วิศวกรรมคอมพิวเตอร์))</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ (หลักสูตรนานาชาติ) (วศ.บ. (วิศวกรรมคอมพิวเตอร์))</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ภาษาไทย ปกติ</t>
+          <t>นานาชาติ</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>วิทยาเขตหลักหัวหมาก</t>
+          <t>วิทยาเขตหลัก</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>33000</v>
+        <v>50407</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยรามคำแหง</t>
+          <t>สถาบันเทคโนโลยีจิตรลดา</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์ (หลักสูตรนานาชาติ) (วศ.บ. (วิศวกรรมคอมพิวเตอร์))</t>
+          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>นานาชาติ</t>
+          <t>ภาษาไทย ปกติ</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1507,18 +1507,18 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>50407</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>สถาบันเทคโนโลยีจิตรลดา</t>
+          <t>มหาวิทยาลัยราชภัฏพิบูลสงคราม</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>วิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1532,18 +1532,18 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>31500</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏพิบูลสงคราม</t>
+          <t>มหาวิทยาลัยราชภัฏสวนสุนันทา</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1553,22 +1553,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>วิทยาเขตหลัก</t>
+          <t>หลัก</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>12000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏสวนสุนันทา</t>
+          <t>มหาวิทยาลัยราชภัฏอุบลราชธานี</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์และเครือข่าย</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1578,22 +1578,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>หลัก</t>
+          <t>วิทยาเขตหลัก</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>18500</v>
+        <v>9076</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยราชภัฏอุบลราชธานี</t>
+          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลธัญบุรี</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์และเครือข่าย</t>
+          <t>วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1607,7 +1607,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9076</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="48">
@@ -1632,18 +1632,18 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>14000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลธัญบุรี</t>
+          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>วิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. (วิศวกรรมคอมพิวเตอร์และระบบไอโอที)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1657,18 +1657,18 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>20000</v>
+        <v>16120</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลกรุงเทพ</t>
+          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลพระนคร</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>วศ.บ. (วิศวกรรมคอมพิวเตอร์และระบบไอโอที)</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1678,22 +1678,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>วิทยาเขตหลัก</t>
+          <t>พระนครเหนือ</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>16120</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลพระนคร</t>
+          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลรัตนโกสินทร์</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ.  วิศวกรรมคอมพิวเตอร์ 4 ปี</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>พระนครเหนือ</t>
+          <t>ศาลายา</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -1718,7 +1718,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>วศ.บ.  วิศวกรรมคอมพิวเตอร์ 4 ปี</t>
+          <t>อส.บ. เทคโนโลยีวิศวกรรมคอมพิวเตอร์ 4 ปี</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ศาลายา</t>
+          <t>วังไกลกังวล</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -1738,12 +1738,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลรัตนโกสินทร์</t>
+          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลศรีวิชัย</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>อส.บ. เทคโนโลยีวิศวกรรมคอมพิวเตอร์ 4 ปี</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1753,11 +1753,11 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>วังไกลกังวล</t>
+          <t>สงขลา</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15000</v>
+        <v>13750</v>
       </c>
     </row>
     <row r="54">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์และการสื่อสาร</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>สงขลา</t>
+          <t>ตรัง</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -1788,12 +1788,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลศรีวิชัย</t>
+          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลอีสาน</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมปัญญาประดิษฐ์และนวัตกรรมดิจิทัล</t>
+          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>สงขลา</t>
+          <t>นครราชสีมา</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>13750</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลศรีวิชัย</t>
+          <t>มหาวิทยาลัยศรีปทุม</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์และการสื่อสาร</t>
+          <t>วศ.บ. สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1828,22 +1828,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ตรัง</t>
+          <t>วิทยาเขตหลัก</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>13750</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีราชมงคลอีสาน</t>
+          <t>มหาวิทยาลัยหอการค้าไทย</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต (วิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1853,22 +1853,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>นครราชสีมา</t>
+          <t>วิทยาเขตหลัก</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>12000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยศรีปทุม</t>
+          <t>มหาวิทยาลัยเทคโนโลยีมหานคร</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>วศ.บ. สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1888,12 +1888,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยหอการค้าไทย</t>
+          <t>มหาวิทยาลัยรังสิต</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต (วิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์)</t>
+          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1907,18 +1907,18 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>42500</v>
+        <v>49600</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยเทคโนโลยีมหานคร</t>
+          <t>มหาวิทยาลัยธุรกิจบัณฑิตย์</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>วศ.บ. วิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์</t>
+          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1932,13 +1932,13 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>31393.09259259259</v>
+        <v>42125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยรังสิต</t>
+          <t>มหาวิทยาลัยเกษมบัณฑิต</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1953,22 +1953,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>วิทยาเขตหลัก</t>
+          <t>วิทยาเขตร่มเกล้า</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>49600</v>
+        <v>35250</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>มหาวิทยาลัยธุรกิจบัณฑิตย์</t>
+          <t>มหาวิทยาลัยสยาม</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
+          <t>วศ.บ. สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1982,82 +1982,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>42125</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>มหาวิทยาลัยเกษมบัณฑิต</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>วศ.บ.วิศวกรรมคอมพิวเตอร์</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>ภาษาไทย ปกติ</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>วิทยาเขตร่มเกล้า</t>
-        </is>
-      </c>
-      <c r="E63" t="n">
-        <v>35250</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>มหาวิทยาลัยสยาม</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>วศ.บ. สาขาวิชาวิศวกรรมคอมพิวเตอร์</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>ภาษาไทย ปกติ</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>วิทยาเขตหลัก</t>
-        </is>
-      </c>
-      <c r="E64" t="n">
         <v>37937</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>สถาบันการจัดการปัญญาภิวัฒน์</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>หลักสูตรวิศวกรรมศาสตรบัณฑิต สาขาวิชาวิศวกรรมคอมพิวเตอร์และปัญญาประดิษฐ์</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>ภาษาไทย ปกติ</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>แจ้งวัฒนะ นนทบุรี</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>48000</v>
       </c>
     </row>
   </sheetData>

--- a/cleaned-data.xlsx
+++ b/cleaned-data.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="12">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="27">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="33">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="40">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="57">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31393.09259259259</v>
+        <v>31479.94117647059</v>
       </c>
     </row>
     <row r="59">

--- a/cleaned-data.xlsx
+++ b/cleaned-data.xlsx
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="5">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="12">
@@ -782,7 +782,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="15">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="25">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="26">
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="27">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="33">
@@ -1407,7 +1407,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="40">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="57">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>31479.94117647059</v>
+        <v>31393.09259259259</v>
       </c>
     </row>
     <row r="59">
